--- a/target/classes/test/each_output.xlsx
+++ b/target/classes/test/each_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6140DA-07FE-4676-8190-CEEB04431E61}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E142AED1-5F31-4838-9ACB-BE945C89CFB2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="21">
   <si>
     <t>Each Demo</t>
   </si>
@@ -48,6 +48,15 @@
     <t>a</t>
   </si>
   <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>${ur.getValueForColumnCode("STR001")}</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -79,6 +88,15 @@
   </si>
   <si>
     <t>T9</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
   </si>
 </sst>
 </file>
@@ -86,7 +104,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,8 +125,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,6 +142,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -143,11 +173,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,126 +459,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A109"/>
+  <dimension ref="A1:Q136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.0" customWidth="true"/>
+    <col min="10" max="10" width="8.0" customWidth="true"/>
+    <col min="5" max="5" width="8.0" customWidth="true"/>
+    <col min="2" max="2" width="8.0" customWidth="true"/>
+    <col min="3" max="3" width="8.0" customWidth="true"/>
+    <col min="4" max="4" width="8.0" customWidth="true"/>
+    <col min="6" max="6" width="8.0" customWidth="true"/>
+    <col min="7" max="7" width="8.0" customWidth="true"/>
+    <col min="8" max="8" width="8.0" customWidth="true"/>
+    <col min="11" max="11" width="8.0" customWidth="true"/>
+    <col min="12" max="12" width="8.0" customWidth="true"/>
+    <col min="13" max="13" width="8.0" customWidth="true"/>
+    <col min="14" max="14" width="8.0" customWidth="true"/>
+    <col min="15" max="15" width="8.0" customWidth="true"/>
+    <col min="16" max="16" width="8.0" customWidth="true"/>
+    <col min="17" max="17" width="8.0" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35" customHeight="true">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="23.25" x14ac:dyDescent="0.35" customHeight="true">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25" ht="15.0" customHeight="true"/>
-    <row r="3" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25" ht="15.0" customHeight="true"/>
+    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="15.0" customHeight="true"/>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A5" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+        <v>8</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A6" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A7" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" ht="15.0" customHeight="true">
+        <v>9</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="J6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
+      <c r="N6" s="0"/>
+      <c r="O6" s="0"/>
+      <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
+    </row>
+    <row r="7" ht="15.0" customHeight="true">
+      <c r="A7" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A8" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" ht="15.0" customHeight="true">
+        <v>11</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
+      <c r="O8" s="0"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A9" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" ht="15.0" customHeight="true">
+        <v>12</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="K9" s="0"/>
+      <c r="N9" s="0"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A10" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+        <v>13</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="K10" s="0"/>
+      <c r="P10" s="0"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A11" s="0" t="s">
-        <v>11</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="0"/>
     </row>
     <row r="12" ht="15.0" customHeight="true">
       <c r="A12" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" ht="15.0" customHeight="true">
-      <c r="A13" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="J12" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+      <c r="A13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="0"/>
+      <c r="J13" t="s" s="0">
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="15.0" customHeight="true">
       <c r="A14" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>17</v>
       </c>
     </row>
     <row r="15" ht="15.0" customHeight="true">
-      <c r="A15" t="s" s="0">
+      <c r="A15" t="s" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" ht="15.0" customHeight="true">
-      <c r="A16" s="0"/>
-    </row>
-    <row r="17" ht="15.0" customHeight="true"/>
-    <row r="18" ht="15.0" customHeight="true"/>
-    <row r="19" ht="15.0" customHeight="true"/>
+      <c r="J15" t="s" s="4">
+        <v>3</v>
+      </c>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+    </row>
+    <row r="16" ht="15.0" customHeight="true"/>
+    <row r="17" ht="15.0" customHeight="true">
+      <c r="L17" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="M17" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="O17" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" ht="15.0" customHeight="true">
+      <c r="K18" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" ht="15.0" customHeight="true">
+      <c r="K19" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="P19" t="s" s="0">
+        <v>4</v>
+      </c>
+    </row>
     <row r="20" ht="15.0" customHeight="true">
       <c r="A20" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="J20" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="M20" t="s" s="0">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" ht="15.0" customHeight="true"/>
-    <row r="22" ht="15.0" customHeight="true"/>
-    <row r="23" ht="15.0" customHeight="true"/>
-    <row r="24" ht="15.0" customHeight="true"/>
-    <row r="25" ht="15.0" customHeight="true"/>
-    <row r="26" ht="15.0" customHeight="true"/>
-    <row r="27" ht="15.0" customHeight="true"/>
-    <row r="28" ht="15.0" customHeight="true"/>
-    <row r="29" ht="15.0" customHeight="true"/>
-    <row r="30" ht="15.0" customHeight="true"/>
-    <row r="31" ht="15.0" customHeight="true"/>
-    <row r="32" ht="15.0" customHeight="true"/>
-    <row r="33" ht="15.0" customHeight="true"/>
-    <row r="34" ht="15.0" customHeight="true"/>
-    <row r="35" ht="15.0" customHeight="true"/>
-    <row r="36" ht="15.0" customHeight="true"/>
-    <row r="37" ht="15.0" customHeight="true"/>
-    <row r="38" ht="15.0" customHeight="true"/>
-    <row r="39" ht="15.0" customHeight="true"/>
-    <row r="40" ht="15.0" customHeight="true"/>
-    <row r="41" ht="15.0" customHeight="true"/>
-    <row r="42" ht="15.0" customHeight="true"/>
-    <row r="43" ht="15.0" customHeight="true"/>
-    <row r="44" ht="15.0" customHeight="true"/>
-    <row r="45" ht="15.0" customHeight="true"/>
-    <row r="46" ht="15.0" customHeight="true"/>
-    <row r="47" ht="15.0" customHeight="true"/>
-    <row r="48" ht="15.0" customHeight="true"/>
-    <row r="49" ht="15.0" customHeight="true"/>
-    <row r="50" ht="15.0" customHeight="true"/>
-    <row r="51" ht="15.0" customHeight="true"/>
+    <row r="22" ht="15.0" customHeight="true">
+      <c r="A22" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" ht="15.0" customHeight="true">
+      <c r="A25" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" ht="15.0" customHeight="true">
+      <c r="A28" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" ht="15.0" customHeight="true">
+      <c r="A31" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" ht="15.0" customHeight="true">
+      <c r="A34" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" ht="15.0" customHeight="true">
+      <c r="A37" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" ht="15.0" customHeight="true">
+      <c r="A40" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" ht="15.0" customHeight="true">
+      <c r="A43" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" ht="15.0" customHeight="true">
+      <c r="A46" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" ht="15.0" customHeight="true">
+      <c r="A49" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
     <row r="52" ht="15.0" customHeight="true"/>
     <row r="53" ht="15.0" customHeight="true"/>
     <row r="54" ht="15.0" customHeight="true"/>
@@ -606,6 +817,33 @@
     <row r="107" ht="15.0" customHeight="true"/>
     <row r="108" ht="15.0" customHeight="true"/>
     <row r="109" ht="15.0" customHeight="true"/>
+    <row r="110" ht="15.0" customHeight="true"/>
+    <row r="111" ht="15.0" customHeight="true"/>
+    <row r="112" ht="15.0" customHeight="true"/>
+    <row r="113" ht="15.0" customHeight="true"/>
+    <row r="114" ht="15.0" customHeight="true"/>
+    <row r="115" ht="15.0" customHeight="true"/>
+    <row r="116" ht="15.0" customHeight="true"/>
+    <row r="117" ht="15.0" customHeight="true"/>
+    <row r="118" ht="15.0" customHeight="true"/>
+    <row r="119" ht="15.0" customHeight="true"/>
+    <row r="120" ht="15.0" customHeight="true"/>
+    <row r="121" ht="15.0" customHeight="true"/>
+    <row r="122" ht="15.0" customHeight="true"/>
+    <row r="123" ht="15.0" customHeight="true"/>
+    <row r="124" ht="15.0" customHeight="true"/>
+    <row r="125" ht="15.0" customHeight="true"/>
+    <row r="126" ht="15.0" customHeight="true"/>
+    <row r="127" ht="15.0" customHeight="true"/>
+    <row r="128" ht="15.0" customHeight="true"/>
+    <row r="129" ht="15.0" customHeight="true"/>
+    <row r="130" ht="15.0" customHeight="true"/>
+    <row r="131" ht="15.0" customHeight="true"/>
+    <row r="132" ht="15.0" customHeight="true"/>
+    <row r="133" ht="15.0" customHeight="true"/>
+    <row r="134" ht="15.0" customHeight="true"/>
+    <row r="135" ht="15.0" customHeight="true"/>
+    <row r="136" ht="15.0" customHeight="true"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/target/classes/test/each_output.xlsx
+++ b/target/classes/test/each_output.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B614F48A-C208-411B-8A23-D1A14B28855F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C529B802-9090-427A-8EA9-1F3DF5F9A323}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,26 +31,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>MauroWB</author>
-  </authors>
-  <commentList/>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>MauroWB</author>
-  </authors>
-  <commentList/>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="73">
   <si>
     <t>Each Demo</t>
   </si>
@@ -58,27 +40,15 @@
     <t>Verifica il modo in cui EachCommand sposta il contenuto adiacente alle celle coinvolte nella sua iterazione.</t>
   </si>
   <si>
-    <t>${obj}</t>
-  </si>
-  <si>
     <t>a</t>
   </si>
   <si>
     <t>*</t>
   </si>
   <si>
-    <t>${ur.getValueForColumnCode("STR001")}</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
-    <t>${ur.getValueForColumnCode("STR007")}</t>
-  </si>
-  <si>
-    <t>${ur.getValueForColumnCode("STR004")}</t>
-  </si>
-  <si>
     <t>Generatore x</t>
   </si>
   <si>
@@ -91,15 +61,6 @@
     <t>Potenza 3</t>
   </si>
   <si>
-    <t>${ur.getValueForColumnCode("STR008")}</t>
-  </si>
-  <si>
-    <t>${ur.getValueForColumnCode("STR006")}</t>
-  </si>
-  <si>
-    <t>${ur.getValueForColumnCode("STR005")}</t>
-  </si>
-  <si>
     <t>Potenza1</t>
   </si>
   <si>
@@ -109,7 +70,22 @@
     <t>I=</t>
   </si>
   <si>
-    <t/>
+    <t>UIGridRow 1</t>
+  </si>
+  <si>
+    <t>UIGridRow 2</t>
+  </si>
+  <si>
+    <t>UIGridRow 3</t>
+  </si>
+  <si>
+    <t>UIGridRow 4</t>
+  </si>
+  <si>
+    <t>UIGridRow 5</t>
+  </si>
+  <si>
+    <t>UIGridRow 6</t>
   </si>
   <si>
     <t>T0</t>
@@ -281,8 +257,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,18 +271,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
@@ -549,33 +512,33 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="5" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -860,187 +823,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.0" customWidth="true"/>
-    <col min="10" max="10" width="8.0" customWidth="true"/>
-    <col min="3" max="3" width="8.0" customWidth="true"/>
-    <col min="5" max="5" width="8.0" customWidth="true"/>
-    <col min="2" max="2" width="8.0" customWidth="true"/>
-    <col min="4" max="4" width="8.0" customWidth="true"/>
-    <col min="6" max="6" width="8.0" customWidth="true"/>
-    <col min="7" max="7" width="8.0" customWidth="true"/>
-    <col min="8" max="8" width="8.0" customWidth="true"/>
-    <col min="11" max="11" width="8.0" customWidth="true"/>
-    <col min="12" max="12" width="8.0" customWidth="true"/>
-    <col min="13" max="13" width="8.0" customWidth="true"/>
-    <col min="14" max="14" width="8.0" customWidth="true"/>
-    <col min="15" max="15" width="8.0" customWidth="true"/>
-    <col min="16" max="16" width="8.0" customWidth="true"/>
-    <col min="17" max="17" width="8.0" customWidth="true"/>
+    <col min="1" max="8" width="8" customWidth="1"/>
+    <col min="10" max="17" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="23.25" x14ac:dyDescent="0.35" customHeight="true">
+    <row r="1" spans="1:17" s="3" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25" ht="15.0" customHeight="true"/>
-    <row r="3" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+    <row r="2" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:17" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="15.0" customHeight="true"/>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A5" s="0" t="s">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="J7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A6" s="0" t="s">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="J6" s="0" t="s">
+      <c r="J8" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="0"/>
-      <c r="L6" s="0"/>
-      <c r="M6" s="0"/>
-      <c r="N6" s="0"/>
-      <c r="O6" s="0"/>
-      <c r="P6" s="0"/>
-      <c r="Q6" s="0"/>
-    </row>
-    <row r="7" ht="15.0" customHeight="true">
-      <c r="A7" t="s" s="0">
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="J7" t="s" s="0">
+      <c r="J9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A8" t="s" s="0">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" t="s" s="0">
+      <c r="J10" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="0"/>
-      <c r="M8" s="0"/>
-      <c r="O8" s="0"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A9" t="s" s="0">
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" t="s" s="0">
+      <c r="J11" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="0"/>
-      <c r="N9" s="0"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A10" t="s" s="0">
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" t="s" s="0">
+      <c r="J12" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="0"/>
-      <c r="P10" s="0"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A11" s="0" t="s">
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="0" t="s">
+      <c r="J13" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="0"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A12" s="0" t="s">
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="J12" t="s" s="0">
+      <c r="J14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A13" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="0"/>
-      <c r="E13" s="0"/>
-      <c r="J13" t="s" s="0">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" ht="15.0" customHeight="true">
-      <c r="A14" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="J14" t="s" s="0">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A15" t="s" s="1">
-        <v>3</v>
-      </c>
-      <c r="C15" s="0"/>
-      <c r="J15" t="s" s="1">
-        <v>3</v>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1050,229 +950,270 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A16" s="0"/>
-      <c r="B16" s="0"/>
-      <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="0"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A17" s="0"/>
-      <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="0"/>
-      <c r="L17" t="s" s="0">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" t="s">
         <v>4</v>
       </c>
-      <c r="M17" t="s" s="0">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
         <v>4</v>
       </c>
-      <c r="O17" t="s" s="0">
+      <c r="M25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="M27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" ht="15.0" customHeight="true">
-      <c r="K18" t="s" s="0">
+      <c r="M28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" t="s">
         <v>4</v>
       </c>
-      <c r="N18" t="s" s="0">
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" ht="15.0" customHeight="true">
-      <c r="K19" t="s" s="0">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" t="s">
         <v>4</v>
       </c>
-      <c r="P19" t="s" s="0">
+    </row>
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A20" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="0"/>
-      <c r="C20" s="0"/>
-      <c r="D20" s="0"/>
-      <c r="E20" s="0"/>
-      <c r="F20" s="0"/>
-      <c r="G20" s="0"/>
-      <c r="H20" s="0"/>
-      <c r="J20" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="M20" t="s" s="0">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" ht="15.0" customHeight="true">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" ht="15.0" customHeight="true">
-      <c r="A22" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="C22" t="s" s="0">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>31</v>
       </c>
-      <c r="E22" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" ht="15.0" customHeight="true">
-      <c r="C24" t="s" s="0">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" ht="15.0" customHeight="true">
-      <c r="A25" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="C25" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" ht="15.0" customHeight="true">
-      <c r="C27" t="s" s="0">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" ht="15.0" customHeight="true">
-      <c r="A28" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="E28" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" ht="15.0" customHeight="true">
-      <c r="C30" t="s" s="0">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" ht="15.0" customHeight="true">
-      <c r="A31" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C31" t="s" s="0">
+      <c r="C46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>31</v>
       </c>
-      <c r="E31" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" ht="15.0" customHeight="true">
-      <c r="C33" t="s" s="0">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" ht="15.0" customHeight="true">
-      <c r="A34" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C34" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="E34" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" ht="15.0" customHeight="true">
-      <c r="C36" t="s" s="0">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" ht="15.0" customHeight="true">
-      <c r="A37" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C37" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="E37" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" ht="15.0" customHeight="true">
-      <c r="C39" t="s" s="0">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" ht="15.0" customHeight="true">
-      <c r="A40" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C40" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="E40" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" ht="15.0" customHeight="true">
-      <c r="C42" t="s" s="0">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" ht="15.0" customHeight="true">
-      <c r="A43" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="C43" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="E43" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" ht="15.0" customHeight="true">
-      <c r="C45" t="s" s="0">
+      <c r="C49" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" ht="15.0" customHeight="true">
-      <c r="A46" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="C46" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="E46" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" ht="15.0" customHeight="true">
-      <c r="C48" t="s" s="0">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" ht="15.0" customHeight="true">
-      <c r="A49" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="C49" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="E49" t="s" s="0">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" ht="15.0" customHeight="true">
-      <c r="C51" t="s" s="0">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" ht="15.0" customHeight="true">
+    <row r="52" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1282,23 +1223,23 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" ht="15.0" customHeight="true">
-      <c r="A53" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="F53" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="G53" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="H53" t="s" s="0">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" ht="15.0" customHeight="true"/>
-    <row r="55" ht="15.0" customHeight="true"/>
-    <row r="56" ht="15.0" customHeight="true">
+    <row r="53" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -1308,118 +1249,111 @@
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" ht="15.0" customHeight="true"/>
-    <row r="58" ht="15.0" customHeight="true"/>
-    <row r="59" ht="15.0" customHeight="true"/>
-    <row r="60" ht="15.0" customHeight="true"/>
-    <row r="61" ht="15.0" customHeight="true"/>
-    <row r="62" ht="15.0" customHeight="true"/>
-    <row r="63" ht="15.0" customHeight="true"/>
-    <row r="64" ht="15.0" customHeight="true"/>
-    <row r="65" ht="15.0" customHeight="true"/>
-    <row r="66" ht="15.0" customHeight="true"/>
-    <row r="67" ht="15.0" customHeight="true"/>
-    <row r="68" ht="15.0" customHeight="true"/>
-    <row r="69" ht="15.0" customHeight="true"/>
-    <row r="70" ht="15.0" customHeight="true"/>
-    <row r="71" ht="15.0" customHeight="true"/>
-    <row r="72" ht="15.0" customHeight="true"/>
-    <row r="73" ht="15.0" customHeight="true"/>
-    <row r="74" ht="15.0" customHeight="true"/>
-    <row r="75" ht="15.0" customHeight="true"/>
-    <row r="76" ht="15.0" customHeight="true"/>
-    <row r="77" ht="15.0" customHeight="true"/>
-    <row r="78" ht="15.0" customHeight="true"/>
-    <row r="79" ht="15.0" customHeight="true"/>
-    <row r="80" ht="15.0" customHeight="true"/>
-    <row r="81" ht="15.0" customHeight="true"/>
-    <row r="82" ht="15.0" customHeight="true"/>
-    <row r="83" ht="15.0" customHeight="true"/>
-    <row r="84" ht="15.0" customHeight="true"/>
-    <row r="85" ht="15.0" customHeight="true"/>
-    <row r="86" ht="15.0" customHeight="true"/>
-    <row r="87" ht="15.0" customHeight="true"/>
-    <row r="88" ht="15.0" customHeight="true"/>
-    <row r="89" ht="15.0" customHeight="true"/>
-    <row r="90" ht="15.0" customHeight="true"/>
-    <row r="91" ht="15.0" customHeight="true"/>
-    <row r="92" ht="15.0" customHeight="true"/>
-    <row r="93" ht="15.0" customHeight="true"/>
-    <row r="94" ht="15.0" customHeight="true"/>
-    <row r="95" ht="15.0" customHeight="true"/>
-    <row r="96" ht="15.0" customHeight="true"/>
-    <row r="97" ht="15.0" customHeight="true"/>
-    <row r="98" ht="15.0" customHeight="true"/>
-    <row r="99" ht="15.0" customHeight="true"/>
-    <row r="100" ht="15.0" customHeight="true"/>
-    <row r="101" ht="15.0" customHeight="true"/>
-    <row r="102" ht="15.0" customHeight="true"/>
-    <row r="103" ht="15.0" customHeight="true"/>
-    <row r="104" ht="15.0" customHeight="true"/>
-    <row r="105" ht="15.0" customHeight="true"/>
-    <row r="106" ht="15.0" customHeight="true"/>
-    <row r="107" ht="15.0" customHeight="true"/>
-    <row r="108" ht="15.0" customHeight="true"/>
-    <row r="109" ht="15.0" customHeight="true"/>
-    <row r="110" ht="15.0" customHeight="true"/>
-    <row r="111" ht="15.0" customHeight="true"/>
-    <row r="112" ht="15.0" customHeight="true"/>
-    <row r="113" ht="15.0" customHeight="true"/>
-    <row r="114" ht="15.0" customHeight="true"/>
-    <row r="115" ht="15.0" customHeight="true"/>
-    <row r="116" ht="15.0" customHeight="true"/>
-    <row r="117" ht="15.0" customHeight="true"/>
-    <row r="118" ht="15.0" customHeight="true"/>
-    <row r="119" ht="15.0" customHeight="true"/>
-    <row r="120" ht="15.0" customHeight="true"/>
-    <row r="121" ht="15.0" customHeight="true"/>
-    <row r="122" ht="15.0" customHeight="true"/>
-    <row r="123" ht="15.0" customHeight="true"/>
-    <row r="124" ht="15.0" customHeight="true"/>
-    <row r="125" ht="15.0" customHeight="true"/>
-    <row r="126" ht="15.0" customHeight="true"/>
-    <row r="127" ht="15.0" customHeight="true"/>
-    <row r="128" ht="15.0" customHeight="true"/>
-    <row r="129" ht="15.0" customHeight="true"/>
-    <row r="130" ht="15.0" customHeight="true"/>
-    <row r="131" ht="15.0" customHeight="true"/>
-    <row r="132" ht="15.0" customHeight="true"/>
-    <row r="133" ht="15.0" customHeight="true"/>
-    <row r="134" ht="15.0" customHeight="true"/>
-    <row r="135" ht="15.0" customHeight="true"/>
-    <row r="136" ht="15.0" customHeight="true"/>
+    <row r="57" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24ED5416-779C-49DA-812A-1D6D84DBC9BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24ED5416-779C-49DA-812A-1D6D84DBC9BC}">
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" style="10" width="9.140625" collapsed="true" customWidth="true"/>
-    <col min="7" max="7" style="10" width="9.140625" collapsed="true" customWidth="true"/>
-    <col min="6" max="6" style="10" width="9.140625" collapsed="true" customWidth="true"/>
-    <col min="5" max="5" style="10" width="9.140625" collapsed="true" customWidth="true"/>
-    <col min="4" max="4" style="10" width="9.140625" collapsed="true" customWidth="true"/>
-    <col min="3" max="3" style="10" width="9.140625" collapsed="true" customWidth="true"/>
-    <col min="2" max="2" style="10" width="9.140625" collapsed="true" customWidth="true"/>
-    <col min="1" max="1" style="10" width="9.140625" collapsed="false" customWidth="true"/>
-    <col min="9" max="9" customWidth="true" style="10" width="13.140625" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="10" width="11.28515625" collapsed="false"/>
-    <col min="11" max="16384" style="10" width="9.140625" collapsed="false"/>
+    <col min="1" max="1" width="9.140625" style="10" customWidth="1"/>
+    <col min="2" max="8" width="9.140625" style="10" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.140625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="10" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3" ht="16.5" customHeight="true">
+    <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1431,7 +1365,7 @@
       <c r="I1" s="8"/>
       <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3" ht="16.5" customHeight="true">
+    <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -1449,9 +1383,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3" ht="16.5" customHeight="true">
+    <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -1461,13 +1395,13 @@
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
       <c r="I3" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3" ht="16.5" customHeight="true">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -1479,7 +1413,7 @@
       <c r="I4" s="19"/>
       <c r="J4" s="20"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3" ht="16.5" customHeight="true">
+    <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -1491,9 +1425,9 @@
       <c r="I5" s="19"/>
       <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35" customHeight="true">
+    <row r="6" spans="1:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
@@ -1502,14 +1436,14 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22"/>
-      <c r="I6" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="28" t="s">
+      <c r="I6" s="26" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3" ht="16.5" customHeight="true">
+      <c r="J6" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23"/>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
@@ -1518,14 +1452,15 @@
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
-      <c r="I7" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="29">
+      <c r="I7" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="27">
         <f>SUM(I6+J6)</f>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35" customHeight="true">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -1534,10 +1469,10 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3" ht="16.5" customHeight="true">
+      <c r="I8" s="29"/>
+      <c r="J8" s="25"/>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -1549,9 +1484,9 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3" ht="16.5" customHeight="true">
+    <row r="10" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -1561,13 +1496,13 @@
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" customHeight="true">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -1579,7 +1514,7 @@
       <c r="I11" s="19"/>
       <c r="J11" s="20"/>
     </row>
-    <row r="12" ht="16.5" customHeight="true">
+    <row r="12" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -1591,9 +1526,9 @@
       <c r="I12" s="19"/>
       <c r="J12" s="20"/>
     </row>
-    <row r="13" ht="17.25" customHeight="true">
-      <c r="A13" t="s" s="21">
-        <v>50</v>
+    <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -1602,14 +1537,14 @@
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
-      <c r="I13" t="s" s="28">
-        <v>51</v>
-      </c>
-      <c r="J13" t="s" s="28">
+      <c r="I13" s="26" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="14" ht="16.5" customHeight="true">
+      <c r="J13" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
@@ -1618,14 +1553,15 @@
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
-      <c r="I14" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="J14" s="29">
+      <c r="I14" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="27" t="e">
         <f>SUM(I13+J13)</f>
-      </c>
-    </row>
-    <row r="15" ht="17.25" customHeight="true">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -1634,10 +1570,10 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="27"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="true">
+      <c r="I15" s="29"/>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -1649,9 +1585,9 @@
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" ht="16.5" customHeight="true">
-      <c r="A17" t="s" s="14">
-        <v>52</v>
+    <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -1660,14 +1596,14 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
-      <c r="I17" t="s" s="16">
-        <v>16</v>
-      </c>
-      <c r="J17" t="s" s="17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" ht="16.5" customHeight="true">
+      <c r="I17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -1679,7 +1615,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" ht="16.5" customHeight="true">
+    <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -1691,9 +1627,9 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" ht="17.25" customHeight="true">
-      <c r="A20" t="s" s="21">
-        <v>53</v>
+    <row r="20" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
@@ -1702,14 +1638,14 @@
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
-      <c r="I20" t="s" s="28">
-        <v>54</v>
-      </c>
-      <c r="J20" t="s" s="28">
+      <c r="I20" s="26" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" ht="16.5" customHeight="true">
+      <c r="J20" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
@@ -1718,14 +1654,15 @@
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
-      <c r="I21" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="J21" s="29">
+      <c r="I21" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="27">
         <f>SUM(I20+J20)</f>
-      </c>
-    </row>
-    <row r="22" ht="17.25" customHeight="true">
+        <v>-312541</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1734,10 +1671,10 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="27"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="true">
+      <c r="I22" s="29"/>
+      <c r="J22" s="25"/>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1749,9 +1686,9 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" ht="16.5" customHeight="true">
-      <c r="A24" t="s" s="14">
-        <v>52</v>
+    <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
+        <v>50</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15"/>
@@ -1760,14 +1697,14 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
-      <c r="I24" t="s" s="16">
-        <v>16</v>
-      </c>
-      <c r="J24" t="s" s="17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" ht="16.5" customHeight="true">
+      <c r="I24" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="18"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -1779,7 +1716,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" ht="16.5" customHeight="true">
+    <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -1791,9 +1728,9 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" ht="17.25" customHeight="true">
-      <c r="A27" t="s" s="21">
-        <v>55</v>
+    <row r="27" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -1802,14 +1739,14 @@
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
       <c r="H27" s="22"/>
-      <c r="I27" t="s" s="28">
-        <v>56</v>
-      </c>
-      <c r="J27" t="s" s="28">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" ht="16.5" customHeight="true">
+      <c r="I27" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -1818,14 +1755,15 @@
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
-      <c r="I28" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="J28" s="29">
+      <c r="I28" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="27">
         <f>SUM(I27+J27)</f>
-      </c>
-    </row>
-    <row r="29" ht="17.25" customHeight="true">
+        <v>440000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1834,10 +1772,10 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="27"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="true">
+      <c r="I29" s="29"/>
+      <c r="J29" s="25"/>
+    </row>
+    <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1849,9 +1787,9 @@
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" ht="16.5" customHeight="true">
-      <c r="A31" t="s" s="14">
-        <v>57</v>
+    <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="B31" s="15"/>
       <c r="C31" s="15"/>
@@ -1860,14 +1798,14 @@
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
       <c r="H31" s="15"/>
-      <c r="I31" t="s" s="16">
-        <v>16</v>
-      </c>
-      <c r="J31" t="s" s="17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" ht="16.5" customHeight="true">
+      <c r="I31" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="18"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -1879,7 +1817,7 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" ht="16.5" customHeight="true">
+    <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
@@ -1891,9 +1829,9 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" ht="17.25" customHeight="true">
-      <c r="A34" t="s" s="21">
-        <v>58</v>
+    <row r="34" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -1902,14 +1840,14 @@
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
-      <c r="I34" t="s" s="28">
-        <v>59</v>
-      </c>
-      <c r="J34" t="s" s="28">
+      <c r="I34" s="26" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="35" ht="16.5" customHeight="true">
+      <c r="J34" s="26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
@@ -1918,14 +1856,15 @@
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
       <c r="H35" s="24"/>
-      <c r="I35" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="J35" s="29">
+      <c r="I35" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="27">
         <f>SUM(I34+J34)</f>
-      </c>
-    </row>
-    <row r="36" ht="17.25" customHeight="true">
+        <v>1212044</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -1934,10 +1873,10 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="27"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="true">
+      <c r="I36" s="29"/>
+      <c r="J36" s="25"/>
+    </row>
+    <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -1949,9 +1888,9 @@
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" ht="16.5" customHeight="true">
-      <c r="A38" t="s" s="14">
-        <v>60</v>
+    <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="B38" s="15"/>
       <c r="C38" s="15"/>
@@ -1960,14 +1899,14 @@
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
       <c r="H38" s="15"/>
-      <c r="I38" t="s" s="16">
-        <v>16</v>
-      </c>
-      <c r="J38" t="s" s="17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" ht="16.5" customHeight="true">
+      <c r="I38" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18"/>
       <c r="B39" s="19"/>
       <c r="C39" s="19"/>
@@ -1979,7 +1918,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" ht="16.5" customHeight="true">
+    <row r="40" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -1991,9 +1930,9 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" ht="17.25" customHeight="true">
-      <c r="A41" t="s" s="21">
-        <v>61</v>
+    <row r="41" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="21" t="s">
+        <v>59</v>
       </c>
       <c r="B41" s="22"/>
       <c r="C41" s="22"/>
@@ -2002,14 +1941,14 @@
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
-      <c r="I41" t="s" s="28">
-        <v>62</v>
-      </c>
-      <c r="J41" t="s" s="28">
+      <c r="I41" s="26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="42" ht="16.5" customHeight="true">
+      <c r="J41" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="23"/>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
@@ -2018,14 +1957,15 @@
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
       <c r="H42" s="24"/>
-      <c r="I42" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="J42" s="29">
+      <c r="I42" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42" s="27" t="e">
         <f>SUM(I41+J41)</f>
-      </c>
-    </row>
-    <row r="43" ht="17.25" customHeight="true">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -2034,10 +1974,10 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="27"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="true">
+      <c r="I43" s="29"/>
+      <c r="J43" s="25"/>
+    </row>
+    <row r="44" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -2049,9 +1989,9 @@
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
     </row>
-    <row r="45" ht="16.5" customHeight="true">
-      <c r="A45" t="s" s="14">
-        <v>63</v>
+    <row r="45" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="B45" s="15"/>
       <c r="C45" s="15"/>
@@ -2060,14 +2000,14 @@
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
       <c r="H45" s="15"/>
-      <c r="I45" t="s" s="16">
-        <v>16</v>
-      </c>
-      <c r="J45" t="s" s="17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" ht="16.5" customHeight="true">
+      <c r="I45" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
@@ -2079,7 +2019,7 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" ht="16.5" customHeight="true">
+    <row r="47" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
@@ -2091,9 +2031,9 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" ht="17.25" customHeight="true">
-      <c r="A48" t="s" s="21">
-        <v>64</v>
+    <row r="48" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="21" t="s">
+        <v>62</v>
       </c>
       <c r="B48" s="22"/>
       <c r="C48" s="22"/>
@@ -2102,14 +2042,14 @@
       <c r="F48" s="22"/>
       <c r="G48" s="22"/>
       <c r="H48" s="22"/>
-      <c r="I48" t="s" s="28">
-        <v>65</v>
-      </c>
-      <c r="J48" t="s" s="28">
+      <c r="I48" s="26" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="49" ht="16.5" customHeight="true">
+      <c r="J48" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="23"/>
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
@@ -2118,14 +2058,15 @@
       <c r="F49" s="24"/>
       <c r="G49" s="24"/>
       <c r="H49" s="24"/>
-      <c r="I49" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="J49" s="29">
+      <c r="I49" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" s="27" t="e">
         <f>SUM(I48+J48)</f>
-      </c>
-    </row>
-    <row r="50" ht="17.25" customHeight="true">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -2134,10 +2075,10 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="27"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="true">
+      <c r="I50" s="29"/>
+      <c r="J50" s="25"/>
+    </row>
+    <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -2149,9 +2090,9 @@
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
     </row>
-    <row r="52" ht="16.5" customHeight="true">
-      <c r="A52" t="s" s="14">
-        <v>66</v>
+    <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -2160,14 +2101,14 @@
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
-      <c r="I52" t="s" s="16">
-        <v>16</v>
-      </c>
-      <c r="J52" t="s" s="17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" ht="16.5" customHeight="true">
+      <c r="I52" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J52" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="18"/>
       <c r="B53" s="19"/>
       <c r="C53" s="19"/>
@@ -2179,7 +2120,7 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" ht="16.5" customHeight="true">
+    <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="18"/>
       <c r="B54" s="19"/>
       <c r="C54" s="19"/>
@@ -2191,9 +2132,9 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" ht="17.25" customHeight="true">
-      <c r="A55" t="s" s="21">
-        <v>67</v>
+    <row r="55" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="21" t="s">
+        <v>65</v>
       </c>
       <c r="B55" s="22"/>
       <c r="C55" s="22"/>
@@ -2202,14 +2143,14 @@
       <c r="F55" s="22"/>
       <c r="G55" s="22"/>
       <c r="H55" s="22"/>
-      <c r="I55" t="s" s="28">
-        <v>68</v>
-      </c>
-      <c r="J55" t="s" s="28">
+      <c r="I55" s="26" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="56" ht="16.5" customHeight="true">
+      <c r="J55" s="26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="23"/>
       <c r="B56" s="24"/>
       <c r="C56" s="24"/>
@@ -2218,14 +2159,15 @@
       <c r="F56" s="24"/>
       <c r="G56" s="24"/>
       <c r="H56" s="24"/>
-      <c r="I56" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="J56" s="29">
+      <c r="I56" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J56" s="27" t="e">
         <f>SUM(I55+J55)</f>
-      </c>
-    </row>
-    <row r="57" ht="17.25" customHeight="true">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -2234,10 +2176,10 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="27"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="true">
+      <c r="I57" s="29"/>
+      <c r="J57" s="25"/>
+    </row>
+    <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -2249,9 +2191,9 @@
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
     </row>
-    <row r="59" ht="16.5" customHeight="true">
-      <c r="A59" t="s" s="14">
-        <v>69</v>
+    <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="B59" s="15"/>
       <c r="C59" s="15"/>
@@ -2260,14 +2202,14 @@
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
       <c r="H59" s="15"/>
-      <c r="I59" t="s" s="16">
-        <v>16</v>
-      </c>
-      <c r="J59" t="s" s="17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="60" ht="16.5" customHeight="true">
+      <c r="I59" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J59" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="18"/>
       <c r="B60" s="19"/>
       <c r="C60" s="19"/>
@@ -2279,7 +2221,7 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" ht="16.5" customHeight="true">
+    <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="18"/>
       <c r="B61" s="19"/>
       <c r="C61" s="19"/>
@@ -2291,9 +2233,9 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" ht="17.25" customHeight="true">
-      <c r="A62" t="s" s="21">
-        <v>70</v>
+    <row r="62" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="21" t="s">
+        <v>68</v>
       </c>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
@@ -2302,14 +2244,14 @@
       <c r="F62" s="22"/>
       <c r="G62" s="22"/>
       <c r="H62" s="22"/>
-      <c r="I62" t="s" s="28">
-        <v>71</v>
-      </c>
-      <c r="J62" t="s" s="28">
+      <c r="I62" s="26" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="63" ht="16.5" customHeight="true">
+      <c r="J62" s="26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="23"/>
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
@@ -2318,14 +2260,15 @@
       <c r="F63" s="24"/>
       <c r="G63" s="24"/>
       <c r="H63" s="24"/>
-      <c r="I63" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="J63" s="29">
+      <c r="I63" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J63" s="27" t="e">
         <f>SUM(I62+J62)</f>
-      </c>
-    </row>
-    <row r="64" ht="17.25" customHeight="true">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -2334,10 +2277,10 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="27"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="true">
+      <c r="I64" s="29"/>
+      <c r="J64" s="25"/>
+    </row>
+    <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -2349,9 +2292,9 @@
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
     </row>
-    <row r="66" ht="16.5" customHeight="true">
-      <c r="A66" t="s" s="14">
-        <v>72</v>
+    <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="B66" s="15"/>
       <c r="C66" s="15"/>
@@ -2360,14 +2303,14 @@
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
       <c r="H66" s="15"/>
-      <c r="I66" t="s" s="16">
-        <v>16</v>
-      </c>
-      <c r="J66" t="s" s="17">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" ht="16.5" customHeight="true">
+      <c r="I66" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J66" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="18"/>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -2379,7 +2322,7 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" ht="16.5" customHeight="true">
+    <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="18"/>
       <c r="B68" s="19"/>
       <c r="C68" s="19"/>
@@ -2391,9 +2334,9 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" ht="17.25" customHeight="true">
-      <c r="A69" t="s" s="21">
-        <v>73</v>
+    <row r="69" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="21" t="s">
+        <v>71</v>
       </c>
       <c r="B69" s="22"/>
       <c r="C69" s="22"/>
@@ -2402,14 +2345,14 @@
       <c r="F69" s="22"/>
       <c r="G69" s="22"/>
       <c r="H69" s="22"/>
-      <c r="I69" t="s" s="28">
-        <v>74</v>
-      </c>
-      <c r="J69" t="s" s="28">
+      <c r="I69" s="26" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="70" ht="16.5" customHeight="true">
+      <c r="J69" s="26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="23"/>
       <c r="B70" s="24"/>
       <c r="C70" s="24"/>
@@ -2418,14 +2361,15 @@
       <c r="F70" s="24"/>
       <c r="G70" s="24"/>
       <c r="H70" s="24"/>
-      <c r="I70" t="s" s="25">
-        <v>18</v>
-      </c>
-      <c r="J70" s="29">
+      <c r="I70" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="J70" s="27" t="e">
         <f>SUM(I69+J69)</f>
-      </c>
-    </row>
-    <row r="71" ht="17.25" customHeight="true">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="8"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -2434,10 +2378,10 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="27"/>
-    </row>
-    <row r="72" ht="16.5" customHeight="true">
+      <c r="I71" s="29"/>
+      <c r="J71" s="25"/>
+    </row>
+    <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -2449,7 +2393,7 @@
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
     </row>
-    <row r="73" ht="16.5" customHeight="true">
+    <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -2461,22 +2405,21 @@
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
     </row>
-    <row r="74" ht="16.5" customHeight="true"/>
+    <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells>
+  <mergeCells count="10">
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="I49:I50"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="I63:I64"/>
+    <mergeCell ref="I70:I71"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="I28:I29"/>
     <mergeCell ref="I35:I36"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="I49:I50"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="I63:I64"/>
-    <mergeCell ref="I70:I71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>